--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value391.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value391.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.262949243584475</v>
+        <v>0.8733993172645569</v>
       </c>
       <c r="B1">
-        <v>1.553903394922982</v>
+        <v>3.439122438430786</v>
       </c>
       <c r="C1">
-        <v>1.607039184804746</v>
+        <v>2.722492933273315</v>
       </c>
       <c r="D1">
-        <v>1.938872293781366</v>
+        <v>2.491852998733521</v>
       </c>
       <c r="E1">
-        <v>2.760538690128528</v>
+        <v>1.98189640045166</v>
       </c>
     </row>
   </sheetData>
